--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/CCD_BEFTA_JURISDICTION3.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/CCD_BEFTA_JURISDICTION3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veeresha/hmcts/git/ccd-definition-store-api/aat/src/aat/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veeresha/hmcts/git/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677F1DA8-3872-4342-B7A1-C7F04BFCDD1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B111C59E-FC63-834E-B73E-69CAC1DF9258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="940" windowWidth="28800" windowHeight="16420" tabRatio="823" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="28800" windowHeight="16420" tabRatio="823" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3872" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3959" uniqueCount="350">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1098,6 +1098,27 @@
   </si>
   <si>
     <t>1:DESC</t>
+  </si>
+  <si>
+    <t>FormattedDateTimeField</t>
+  </si>
+  <si>
+    <t>FormattedDateField</t>
+  </si>
+  <si>
+    <t>A `DateTime` field with specific format</t>
+  </si>
+  <si>
+    <t>A `Date` field with specific sormat</t>
+  </si>
+  <si>
+    <t>DisplayContextParameter</t>
+  </si>
+  <si>
+    <t>#DATETIMEENTRY(dd)</t>
+  </si>
+  <si>
+    <t>#DATETIMEENTRY(yyyy-mm-dd)</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1130,7 @@
     <numFmt numFmtId="165" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1388,8 +1409,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1420,8 +1446,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1474,6 +1506,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1506,7 +1549,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1627,6 +1670,8 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="26" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -2809,10 +2854,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3596,7 +3641,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="41" t="s">
-        <v>154</v>
+        <v>344</v>
       </c>
       <c r="I29" s="28">
         <v>4</v>
@@ -3623,7 +3668,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>158</v>
+        <v>343</v>
       </c>
       <c r="I30" s="28">
         <v>5</v>
@@ -3650,7 +3695,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="41" t="s">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="I31" s="28">
         <v>6</v>
@@ -3677,7 +3722,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="41" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="I32" s="28">
         <v>7</v>
@@ -3695,19 +3740,19 @@
         <v>55</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G33" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" s="41" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="I33" s="28">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3722,19 +3767,19 @@
         <v>55</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G34" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" s="41" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="I34" s="28">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3758,10 +3803,10 @@
         <v>3</v>
       </c>
       <c r="H35" s="41" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="I35" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3776,19 +3821,19 @@
         <v>55</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G36" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36" s="41" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="I36" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3797,25 +3842,25 @@
       </c>
       <c r="B37" s="27"/>
       <c r="C37" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D37" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E37" s="41" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G37" s="28">
-        <v>1</v>
-      </c>
-      <c r="H37" s="28" t="s">
-        <v>133</v>
+        <v>3</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>235</v>
       </c>
       <c r="I37" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3824,25 +3869,25 @@
       </c>
       <c r="B38" s="27"/>
       <c r="C38" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D38" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E38" s="41" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="G38" s="28">
-        <v>1</v>
-      </c>
-      <c r="H38" s="28" t="s">
-        <v>135</v>
+        <v>4</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>258</v>
       </c>
       <c r="I38" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3866,10 +3911,10 @@
         <v>1</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I39" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3892,11 +3937,11 @@
       <c r="G40" s="28">
         <v>1</v>
       </c>
-      <c r="H40" s="41" t="s">
-        <v>142</v>
+      <c r="H40" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="I40" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3919,11 +3964,11 @@
       <c r="G41" s="28">
         <v>1</v>
       </c>
-      <c r="H41" s="41" t="s">
-        <v>144</v>
+      <c r="H41" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="I41" s="28">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3938,19 +3983,19 @@
         <v>55</v>
       </c>
       <c r="E42" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G42" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" s="41" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I42" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3965,19 +4010,19 @@
         <v>55</v>
       </c>
       <c r="E43" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G43" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" s="41" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="I43" s="28">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4001,10 +4046,10 @@
         <v>2</v>
       </c>
       <c r="H44" s="41" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="I44" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4028,10 +4073,10 @@
         <v>2</v>
       </c>
       <c r="H45" s="41" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I45" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4055,10 +4100,10 @@
         <v>2</v>
       </c>
       <c r="H46" s="41" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="I46" s="28">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4082,10 +4127,10 @@
         <v>2</v>
       </c>
       <c r="H47" s="41" t="s">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="I47" s="28">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4109,10 +4154,10 @@
         <v>2</v>
       </c>
       <c r="H48" s="41" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="I48" s="28">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4127,19 +4172,19 @@
         <v>55</v>
       </c>
       <c r="E49" s="41" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G49" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H49" s="41" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="I49" s="28">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4154,19 +4199,19 @@
         <v>55</v>
       </c>
       <c r="E50" s="41" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G50" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H50" s="41" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="I50" s="28">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4190,10 +4235,10 @@
         <v>3</v>
       </c>
       <c r="H51" s="41" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="I51" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4217,10 +4262,10 @@
         <v>3</v>
       </c>
       <c r="H52" s="41" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="I52" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4235,19 +4280,19 @@
         <v>55</v>
       </c>
       <c r="E53" s="41" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G53" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H53" s="41" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="I53" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4256,25 +4301,25 @@
       </c>
       <c r="B54" s="27"/>
       <c r="C54" s="14" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="D54" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E54" s="41" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G54" s="28">
-        <v>1</v>
-      </c>
-      <c r="H54" s="28" t="s">
-        <v>133</v>
+        <v>3</v>
+      </c>
+      <c r="H54" s="41" t="s">
+        <v>243</v>
       </c>
       <c r="I54" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4283,25 +4328,25 @@
       </c>
       <c r="B55" s="27"/>
       <c r="C55" s="14" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="D55" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E55" s="41" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="G55" s="28">
-        <v>1</v>
-      </c>
-      <c r="H55" s="28" t="s">
-        <v>135</v>
+        <v>4</v>
+      </c>
+      <c r="H55" s="41" t="s">
+        <v>258</v>
       </c>
       <c r="I55" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4325,10 +4370,10 @@
         <v>1</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>334</v>
+        <v>133</v>
       </c>
       <c r="I56" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4352,10 +4397,10 @@
         <v>1</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I57" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4370,30 +4415,84 @@
         <v>55</v>
       </c>
       <c r="E58" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G58" s="28">
+        <v>1</v>
+      </c>
+      <c r="H58" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="I58" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B59" s="27"/>
+      <c r="C59" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G59" s="28">
+        <v>1</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I59" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B60" s="27"/>
+      <c r="C60" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="F58" s="21" t="s">
+      <c r="F60" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="G58" s="28">
+      <c r="G60" s="28">
         <v>2</v>
       </c>
-      <c r="H58" s="41" t="s">
+      <c r="H60" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="I58" s="28">
+      <c r="I60" s="28">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="I4:I58 G4:G58" xr:uid="{00000000-0002-0000-0C00-000001000000}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G60 I4:I60" xr:uid="{00000000-0002-0000-0C00-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A58" xr:uid="{00000000-0002-0000-0C00-000002000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A60" xr:uid="{00000000-0002-0000-0C00-000002000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B58" xr:uid="{00000000-0002-0000-0C00-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B60" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -4674,7 +4773,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6203,10 +6302,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6214,7 +6313,7 @@
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="104.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6704,7 +6803,7 @@
         <v>275</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>154</v>
+        <v>344</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>270</v>
@@ -6721,7 +6820,7 @@
         <v>275</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>158</v>
+        <v>343</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>270</v>
@@ -6738,7 +6837,7 @@
         <v>275</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>270</v>
@@ -6754,8 +6853,8 @@
       <c r="C32" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="D32" s="24" t="s">
-        <v>235</v>
+      <c r="D32" s="41" t="s">
+        <v>158</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>270</v>
@@ -6772,7 +6871,7 @@
         <v>275</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>270</v>
@@ -6788,8 +6887,8 @@
       <c r="C34" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="D34" s="41" t="s">
-        <v>223</v>
+      <c r="D34" s="24" t="s">
+        <v>235</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>270</v>
@@ -6806,7 +6905,7 @@
         <v>275</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>270</v>
@@ -6823,7 +6922,7 @@
         <v>275</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>270</v>
@@ -6832,37 +6931,35 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="71">
         <v>42736</v>
       </c>
-      <c r="B37" s="14"/>
       <c r="C37" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>133</v>
+        <v>275</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>247</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="71">
         <v>42736</v>
       </c>
-      <c r="B38" s="14"/>
       <c r="C38" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>135</v>
+        <v>275</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>258</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>123</v>
@@ -6877,7 +6974,7 @@
         <v>276</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>281</v>
@@ -6894,8 +6991,8 @@
       <c r="C40" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D40" s="41" t="s">
-        <v>142</v>
+      <c r="D40" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>281</v>
@@ -6912,8 +7009,8 @@
       <c r="C41" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D41" s="41" t="s">
-        <v>144</v>
+      <c r="D41" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="E41" s="14" t="s">
         <v>281</v>
@@ -6931,7 +7028,7 @@
         <v>276</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>281</v>
@@ -6949,7 +7046,7 @@
         <v>276</v>
       </c>
       <c r="D43" s="41" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>281</v>
@@ -6967,7 +7064,7 @@
         <v>276</v>
       </c>
       <c r="D44" s="41" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>281</v>
@@ -6985,7 +7082,7 @@
         <v>276</v>
       </c>
       <c r="D45" s="41" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>281</v>
@@ -7003,7 +7100,7 @@
         <v>276</v>
       </c>
       <c r="D46" s="41" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>281</v>
@@ -7021,7 +7118,7 @@
         <v>276</v>
       </c>
       <c r="D47" s="41" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>281</v>
@@ -7038,8 +7135,8 @@
       <c r="C48" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D48" s="24" t="s">
-        <v>235</v>
+      <c r="D48" s="41" t="s">
+        <v>158</v>
       </c>
       <c r="E48" s="14" t="s">
         <v>281</v>
@@ -7057,7 +7154,7 @@
         <v>276</v>
       </c>
       <c r="D49" s="41" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="E49" s="14" t="s">
         <v>281</v>
@@ -7074,8 +7171,8 @@
       <c r="C50" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D50" s="41" t="s">
-        <v>223</v>
+      <c r="D50" s="24" t="s">
+        <v>235</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>281</v>
@@ -7093,7 +7190,7 @@
         <v>276</v>
       </c>
       <c r="D51" s="41" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E51" s="14" t="s">
         <v>281</v>
@@ -7111,7 +7208,7 @@
         <v>276</v>
       </c>
       <c r="D52" s="41" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="E52" s="14" t="s">
         <v>281</v>
@@ -7120,35 +7217,37 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="71">
         <v>42736</v>
       </c>
+      <c r="B53" s="14"/>
       <c r="C53" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D53" s="28" t="s">
-        <v>133</v>
+        <v>276</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>243</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F53" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="71">
         <v>42736</v>
       </c>
+      <c r="B54" s="14"/>
       <c r="C54" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>135</v>
+        <v>276</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>247</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F54" s="24" t="s">
         <v>123</v>
@@ -7162,7 +7261,7 @@
         <v>330</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>334</v>
+        <v>133</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>280</v>
@@ -7179,7 +7278,7 @@
         <v>330</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>280</v>
@@ -7195,13 +7294,47 @@
       <c r="C57" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="D57" s="41" t="s">
-        <v>258</v>
+      <c r="D57" s="28" t="s">
+        <v>334</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>280</v>
       </c>
       <c r="F57" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D59" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="F59" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7424,7 +7557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -7621,10 +7754,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8420,10 +8553,10 @@
         <v>275</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>156</v>
+        <v>344</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>151</v>
+        <v>346</v>
       </c>
       <c r="F27" s="41" t="s">
         <v>152</v>
@@ -8449,10 +8582,10 @@
         <v>275</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>239</v>
+        <v>343</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>240</v>
+        <v>345</v>
       </c>
       <c r="F28" s="41" t="s">
         <v>241</v>
@@ -8715,19 +8848,19 @@
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>24</v>
+        <v>275</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>26</v>
       </c>
       <c r="H37" s="28"/>
       <c r="I37" s="28" t="s">
@@ -8744,19 +8877,19 @@
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>27</v>
+        <v>275</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>242</v>
       </c>
       <c r="H38" s="28"/>
       <c r="I38" s="28" t="s">
@@ -8776,16 +8909,16 @@
         <v>276</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="G39" s="41" t="s">
-        <v>29</v>
+        <v>141</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="H39" s="28"/>
       <c r="I39" s="28" t="s">
@@ -8804,17 +8937,17 @@
       <c r="C40" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="D40" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="F40" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="G40" s="41" t="s">
-        <v>85</v>
+      <c r="D40" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="H40" s="28"/>
       <c r="I40" s="28" t="s">
@@ -8833,17 +8966,17 @@
       <c r="C41" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="D41" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="E41" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="F41" s="41" t="s">
-        <v>147</v>
+      <c r="D41" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>139</v>
       </c>
       <c r="G41" s="41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H41" s="28"/>
       <c r="I41" s="28" t="s">
@@ -8863,16 +8996,16 @@
         <v>276</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E42" s="41" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F42" s="41" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G42" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H42" s="28"/>
       <c r="I42" s="28" t="s">
@@ -8892,16 +9025,16 @@
         <v>276</v>
       </c>
       <c r="D43" s="41" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E43" s="41" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F43" s="41" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G43" s="41" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H43" s="28"/>
       <c r="I43" s="28" t="s">
@@ -8921,16 +9054,16 @@
         <v>276</v>
       </c>
       <c r="D44" s="41" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="E44" s="41" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="F44" s="41" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="G44" s="41" t="s">
-        <v>242</v>
+        <v>84</v>
       </c>
       <c r="H44" s="28"/>
       <c r="I44" s="28" t="s">
@@ -8950,16 +9083,16 @@
         <v>276</v>
       </c>
       <c r="D45" s="41" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E45" s="41" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F45" s="41" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G45" s="41" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="H45" s="28"/>
       <c r="I45" s="28" t="s">
@@ -8979,20 +9112,18 @@
         <v>276</v>
       </c>
       <c r="D46" s="41" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="E46" s="41" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="F46" s="41" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="G46" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="H46" s="41" t="s">
-        <v>161</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="H46" s="28"/>
       <c r="I46" s="28" t="s">
         <v>25</v>
       </c>
@@ -9010,20 +9141,18 @@
         <v>276</v>
       </c>
       <c r="D47" s="41" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E47" s="41" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F47" s="41" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="H47" s="41" t="s">
-        <v>171</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="H47" s="28"/>
       <c r="I47" s="28" t="s">
         <v>25</v>
       </c>
@@ -9041,19 +9170,19 @@
         <v>276</v>
       </c>
       <c r="D48" s="41" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="E48" s="41" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="F48" s="41" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="G48" s="41" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="H48" s="41" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="I48" s="28" t="s">
         <v>25</v>
@@ -9072,18 +9201,20 @@
         <v>276</v>
       </c>
       <c r="D49" s="41" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="E49" s="41" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="F49" s="41" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="G49" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="H49" s="41"/>
+        <v>93</v>
+      </c>
+      <c r="H49" s="41" t="s">
+        <v>171</v>
+      </c>
       <c r="I49" s="28" t="s">
         <v>25</v>
       </c>
@@ -9101,18 +9232,20 @@
         <v>276</v>
       </c>
       <c r="D50" s="41" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E50" s="41" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F50" s="41" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G50" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="H50" s="41"/>
+        <v>79</v>
+      </c>
+      <c r="H50" s="41" t="s">
+        <v>24</v>
+      </c>
       <c r="I50" s="28" t="s">
         <v>25</v>
       </c>
@@ -9130,16 +9263,16 @@
         <v>276</v>
       </c>
       <c r="D51" s="41" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="E51" s="41" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="F51" s="41" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="G51" s="41" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="H51" s="41"/>
       <c r="I51" s="28" t="s">
@@ -9159,20 +9292,18 @@
         <v>276</v>
       </c>
       <c r="D52" s="41" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E52" s="41" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="F52" s="41" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G52" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="H52" s="41" t="s">
-        <v>251</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="H52" s="41"/>
       <c r="I52" s="28" t="s">
         <v>25</v>
       </c>
@@ -9190,16 +9321,16 @@
         <v>276</v>
       </c>
       <c r="D53" s="41" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="E53" s="41" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="F53" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="G53" s="74" t="s">
-        <v>261</v>
+        <v>245</v>
+      </c>
+      <c r="G53" s="41" t="s">
+        <v>246</v>
       </c>
       <c r="H53" s="41"/>
       <c r="I53" s="28" t="s">
@@ -9216,21 +9347,23 @@
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E54" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="G54" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H54" s="28"/>
+        <v>276</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="E54" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="F54" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="G54" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="H54" s="41" t="s">
+        <v>251</v>
+      </c>
       <c r="I54" s="28" t="s">
         <v>25</v>
       </c>
@@ -9245,21 +9378,21 @@
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E55" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="G55" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" s="28"/>
+        <v>276</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="E55" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="F55" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="G55" s="74" t="s">
+        <v>261</v>
+      </c>
+      <c r="H55" s="41"/>
       <c r="I55" s="28" t="s">
         <v>25</v>
       </c>
@@ -9277,14 +9410,16 @@
         <v>330</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>334</v>
+        <v>133</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="F56" s="28"/>
+        <v>134</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>141</v>
+      </c>
       <c r="G56" s="28" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H56" s="28"/>
       <c r="I56" s="28" t="s">
@@ -9304,16 +9439,16 @@
         <v>330</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="G57" s="41" t="s">
-        <v>29</v>
+        <v>140</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="H57" s="28"/>
       <c r="I57" s="28" t="s">
@@ -9332,19 +9467,17 @@
       <c r="C58" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="D58" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="E58" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="F58" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="G58" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="H58" s="41"/>
+      <c r="D58" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="28"/>
       <c r="I58" s="28" t="s">
         <v>25</v>
       </c>
@@ -9353,12 +9486,70 @@
         <v>116</v>
       </c>
     </row>
+    <row r="59" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="G59" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="D60" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="E60" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="F60" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="G60" s="74" t="s">
+        <v>261</v>
+      </c>
+      <c r="H60" s="41"/>
+      <c r="I60" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A58" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A60" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B58" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B60" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -12884,10 +13075,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:O200"/>
+  <dimension ref="A1:P216"/>
   <sheetViews>
-    <sheetView topLeftCell="C169" workbookViewId="0">
-      <selection activeCell="K190" sqref="K190"/>
+    <sheetView topLeftCell="A68" zoomScale="50" workbookViewId="0">
+      <selection activeCell="D217" sqref="D217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12905,10 +13096,11 @@
     <col min="12" max="12" width="15.83203125" customWidth="1"/>
     <col min="13" max="13" width="28.6640625" customWidth="1"/>
     <col min="14" max="14" width="28.6640625" style="14" customWidth="1"/>
-    <col min="15" max="15" width="23.33203125" customWidth="1"/>
+    <col min="15" max="15" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -12929,7 +13121,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:15" s="46" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="46" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="42"/>
       <c r="B2" s="42"/>
       <c r="C2" s="42" t="s">
@@ -12972,7 +13164,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -13018,8 +13210,11 @@
       <c r="O3" s="44" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P3" s="44" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>42736</v>
       </c>
@@ -13056,7 +13251,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>42736</v>
       </c>
@@ -13093,7 +13288,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>42736</v>
       </c>
@@ -13130,7 +13325,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>42736</v>
       </c>
@@ -13167,7 +13362,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>42736</v>
       </c>
@@ -13204,7 +13399,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>42736</v>
       </c>
@@ -13241,7 +13436,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>42736</v>
       </c>
@@ -13278,7 +13473,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>42736</v>
       </c>
@@ -13315,7 +13510,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>42736</v>
       </c>
@@ -13352,7 +13547,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>42736</v>
       </c>
@@ -13389,7 +13584,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>42736</v>
       </c>
@@ -13426,7 +13621,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>42736</v>
       </c>
@@ -13463,7 +13658,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>42736</v>
       </c>
@@ -15260,7 +15455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="13">
         <v>42736</v>
       </c>
@@ -15297,7 +15492,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="13">
         <v>42736</v>
       </c>
@@ -15334,7 +15529,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="13">
         <v>42736</v>
       </c>
@@ -15371,7 +15566,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="13">
         <v>42736</v>
       </c>
@@ -15408,7 +15603,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="13">
         <v>42736</v>
       </c>
@@ -15445,7 +15640,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="13">
         <v>42736</v>
       </c>
@@ -15482,7 +15677,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="13">
         <v>42736</v>
       </c>
@@ -15519,7 +15714,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="13">
         <v>42736</v>
       </c>
@@ -15556,7 +15751,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="13">
         <v>42736</v>
       </c>
@@ -15568,7 +15763,7 @@
         <v>188</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>154</v>
+        <v>344</v>
       </c>
       <c r="F73" s="28">
         <v>4</v>
@@ -15592,8 +15787,11 @@
       <c r="O73" s="24" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P73" s="88" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="13">
         <v>42736</v>
       </c>
@@ -15605,7 +15803,7 @@
         <v>188</v>
       </c>
       <c r="E74" s="41" t="s">
-        <v>158</v>
+        <v>343</v>
       </c>
       <c r="F74" s="28">
         <v>5</v>
@@ -15629,8 +15827,11 @@
       <c r="O74" s="24" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P74" s="89" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="13">
         <v>42736</v>
       </c>
@@ -15642,7 +15843,7 @@
         <v>188</v>
       </c>
       <c r="E75" s="41" t="s">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="F75" s="28">
         <v>6</v>
@@ -15667,7 +15868,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="13">
         <v>42736</v>
       </c>
@@ -15679,7 +15880,7 @@
         <v>188</v>
       </c>
       <c r="E76" s="41" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F76" s="28">
         <v>7</v>
@@ -15704,7 +15905,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="13">
         <v>42736</v>
       </c>
@@ -15716,10 +15917,10 @@
         <v>188</v>
       </c>
       <c r="E77" s="41" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="F77" s="28">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G77" s="28"/>
       <c r="H77" s="41" t="s">
@@ -15729,19 +15930,19 @@
         <v>199</v>
       </c>
       <c r="J77" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K77" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L77" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O77" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="13">
         <v>42736</v>
       </c>
@@ -15753,10 +15954,10 @@
         <v>188</v>
       </c>
       <c r="E78" s="41" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="F78" s="28">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G78" s="28"/>
       <c r="H78" s="41" t="s">
@@ -15766,19 +15967,19 @@
         <v>199</v>
       </c>
       <c r="J78" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K78" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L78" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O78" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="13">
         <v>42736</v>
       </c>
@@ -15790,10 +15991,10 @@
         <v>188</v>
       </c>
       <c r="E79" s="41" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F79" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G79" s="28"/>
       <c r="H79" s="41" t="s">
@@ -15815,7 +16016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="13">
         <v>42736</v>
       </c>
@@ -15824,13 +16025,13 @@
         <v>275</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E80" s="28" t="s">
-        <v>133</v>
+        <v>188</v>
+      </c>
+      <c r="E80" s="41" t="s">
+        <v>232</v>
       </c>
       <c r="F80" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G80" s="28"/>
       <c r="H80" s="41" t="s">
@@ -15840,19 +16041,19 @@
         <v>199</v>
       </c>
       <c r="J80" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K80" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L80" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O80" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="13">
         <v>42736</v>
       </c>
@@ -15861,13 +16062,13 @@
         <v>275</v>
       </c>
       <c r="D81" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E81" s="28" t="s">
-        <v>135</v>
+        <v>188</v>
+      </c>
+      <c r="E81" s="41" t="s">
+        <v>235</v>
       </c>
       <c r="F81" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G81" s="28"/>
       <c r="H81" s="41" t="s">
@@ -15877,19 +16078,19 @@
         <v>199</v>
       </c>
       <c r="J81" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K81" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L81" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O81" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="13">
         <v>42736</v>
       </c>
@@ -15901,10 +16102,10 @@
         <v>196</v>
       </c>
       <c r="E82" s="28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F82" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G82" s="28"/>
       <c r="H82" s="41" t="s">
@@ -15926,7 +16127,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="13">
         <v>42736</v>
       </c>
@@ -15937,11 +16138,11 @@
       <c r="D83" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E83" s="41" t="s">
-        <v>142</v>
+      <c r="E83" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="F83" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G83" s="28"/>
       <c r="H83" s="41" t="s">
@@ -15963,7 +16164,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="13">
         <v>42736</v>
       </c>
@@ -15974,11 +16175,11 @@
       <c r="D84" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E84" s="41" t="s">
-        <v>144</v>
+      <c r="E84" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="F84" s="28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G84" s="28"/>
       <c r="H84" s="41" t="s">
@@ -16000,7 +16201,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="85" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="13">
         <v>42736</v>
       </c>
@@ -16012,10 +16213,10 @@
         <v>196</v>
       </c>
       <c r="E85" s="41" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F85" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G85" s="28"/>
       <c r="H85" s="41" t="s">
@@ -16025,19 +16226,19 @@
         <v>199</v>
       </c>
       <c r="J85" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K85" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L85" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O85" s="24" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="13">
         <v>42736</v>
       </c>
@@ -16049,10 +16250,10 @@
         <v>196</v>
       </c>
       <c r="E86" s="41" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F86" s="28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G86" s="28"/>
       <c r="H86" s="41" t="s">
@@ -16062,19 +16263,19 @@
         <v>199</v>
       </c>
       <c r="J86" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K86" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L86" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O86" s="24" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="13">
         <v>42736</v>
       </c>
@@ -16086,10 +16287,10 @@
         <v>196</v>
       </c>
       <c r="E87" s="41" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="F87" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G87" s="28"/>
       <c r="H87" s="41" t="s">
@@ -16111,7 +16312,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="13">
         <v>42736</v>
       </c>
@@ -16123,10 +16324,10 @@
         <v>196</v>
       </c>
       <c r="E88" s="41" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F88" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G88" s="28"/>
       <c r="H88" s="41" t="s">
@@ -16148,7 +16349,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="89" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="13">
         <v>42736</v>
       </c>
@@ -16160,10 +16361,10 @@
         <v>196</v>
       </c>
       <c r="E89" s="41" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="F89" s="28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G89" s="28"/>
       <c r="H89" s="41" t="s">
@@ -16185,7 +16386,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="13">
         <v>42736</v>
       </c>
@@ -16197,10 +16398,10 @@
         <v>196</v>
       </c>
       <c r="E90" s="41" t="s">
-        <v>168</v>
+        <v>344</v>
       </c>
       <c r="F90" s="28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G90" s="28"/>
       <c r="H90" s="41" t="s">
@@ -16221,8 +16422,11 @@
       <c r="O90" s="24" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P90" s="88" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="13">
         <v>42736</v>
       </c>
@@ -16234,10 +16438,10 @@
         <v>196</v>
       </c>
       <c r="E91" s="41" t="s">
-        <v>223</v>
+        <v>343</v>
       </c>
       <c r="F91" s="28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G91" s="28"/>
       <c r="H91" s="41" t="s">
@@ -16247,19 +16451,22 @@
         <v>199</v>
       </c>
       <c r="J91" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K91" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L91" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O91" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+      <c r="P91" s="89" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="13">
         <v>42736</v>
       </c>
@@ -16271,10 +16478,10 @@
         <v>196</v>
       </c>
       <c r="E92" s="41" t="s">
-        <v>232</v>
+        <v>154</v>
       </c>
       <c r="F92" s="28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G92" s="28"/>
       <c r="H92" s="41" t="s">
@@ -16284,19 +16491,19 @@
         <v>199</v>
       </c>
       <c r="J92" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K92" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L92" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O92" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="13">
         <v>42736</v>
       </c>
@@ -16308,10 +16515,10 @@
         <v>196</v>
       </c>
       <c r="E93" s="41" t="s">
-        <v>235</v>
+        <v>158</v>
       </c>
       <c r="F93" s="28">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G93" s="28"/>
       <c r="H93" s="41" t="s">
@@ -16321,19 +16528,19 @@
         <v>199</v>
       </c>
       <c r="J93" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K93" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L93" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O93" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="13">
         <v>42736</v>
       </c>
@@ -16342,35 +16549,35 @@
         <v>275</v>
       </c>
       <c r="D94" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E94" s="28" t="s">
-        <v>133</v>
+        <v>196</v>
+      </c>
+      <c r="E94" s="41" t="s">
+        <v>168</v>
       </c>
       <c r="F94" s="28">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G94" s="28"/>
-      <c r="H94" s="28" t="s">
-        <v>72</v>
+      <c r="H94" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I94" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J94" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K94" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L94" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O94" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="13">
         <v>42736</v>
       </c>
@@ -16379,35 +16586,35 @@
         <v>275</v>
       </c>
       <c r="D95" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E95" s="28" t="s">
-        <v>135</v>
+        <v>196</v>
+      </c>
+      <c r="E95" s="41" t="s">
+        <v>223</v>
       </c>
       <c r="F95" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G95" s="28"/>
-      <c r="H95" s="28" t="s">
-        <v>72</v>
+      <c r="H95" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I95" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J95" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K95" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L95" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O95" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="13">
         <v>42736</v>
       </c>
@@ -16416,35 +16623,35 @@
         <v>275</v>
       </c>
       <c r="D96" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E96" s="28" t="s">
-        <v>137</v>
+        <v>196</v>
+      </c>
+      <c r="E96" s="41" t="s">
+        <v>232</v>
       </c>
       <c r="F96" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G96" s="28"/>
-      <c r="H96" s="28" t="s">
-        <v>72</v>
+      <c r="H96" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I96" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J96" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K96" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L96" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O96" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="13">
         <v>42736</v>
       </c>
@@ -16453,35 +16660,35 @@
         <v>275</v>
       </c>
       <c r="D97" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E97" s="41" t="s">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="F97" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G97" s="28"/>
-      <c r="H97" s="28" t="s">
-        <v>72</v>
+      <c r="H97" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I97" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J97" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K97" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L97" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O97" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="13">
         <v>42736</v>
       </c>
@@ -16492,11 +16699,11 @@
       <c r="D98" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E98" s="41" t="s">
-        <v>144</v>
+      <c r="E98" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="F98" s="28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G98" s="28"/>
       <c r="H98" s="28" t="s">
@@ -16518,7 +16725,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="13">
         <v>42736</v>
       </c>
@@ -16529,11 +16736,11 @@
       <c r="D99" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E99" s="41" t="s">
-        <v>148</v>
+      <c r="E99" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="F99" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G99" s="28"/>
       <c r="H99" s="28" t="s">
@@ -16543,19 +16750,19 @@
         <v>199</v>
       </c>
       <c r="J99" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K99" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L99" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O99" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="13">
         <v>42736</v>
       </c>
@@ -16566,11 +16773,11 @@
       <c r="D100" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E100" s="41" t="s">
-        <v>156</v>
+      <c r="E100" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="F100" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G100" s="28"/>
       <c r="H100" s="28" t="s">
@@ -16580,19 +16787,19 @@
         <v>199</v>
       </c>
       <c r="J100" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K100" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L100" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O100" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="13">
         <v>42736</v>
       </c>
@@ -16604,10 +16811,10 @@
         <v>204</v>
       </c>
       <c r="E101" s="41" t="s">
-        <v>239</v>
+        <v>142</v>
       </c>
       <c r="F101" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G101" s="28"/>
       <c r="H101" s="28" t="s">
@@ -16617,19 +16824,19 @@
         <v>199</v>
       </c>
       <c r="J101" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K101" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L101" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O101" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="13">
         <v>42736</v>
       </c>
@@ -16641,10 +16848,10 @@
         <v>204</v>
       </c>
       <c r="E102" s="41" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F102" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G102" s="28"/>
       <c r="H102" s="28" t="s">
@@ -16654,19 +16861,19 @@
         <v>199</v>
       </c>
       <c r="J102" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K102" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L102" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O102" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="13">
         <v>42736</v>
       </c>
@@ -16678,10 +16885,10 @@
         <v>204</v>
       </c>
       <c r="E103" s="41" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F103" s="28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G103" s="28"/>
       <c r="H103" s="28" t="s">
@@ -16703,7 +16910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="13">
         <v>42736</v>
       </c>
@@ -16715,10 +16922,10 @@
         <v>204</v>
       </c>
       <c r="E104" s="41" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F104" s="28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G104" s="28"/>
       <c r="H104" s="28" t="s">
@@ -16740,7 +16947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="13">
         <v>42736</v>
       </c>
@@ -16752,10 +16959,10 @@
         <v>204</v>
       </c>
       <c r="E105" s="41" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="F105" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G105" s="28"/>
       <c r="H105" s="28" t="s">
@@ -16765,19 +16972,19 @@
         <v>199</v>
       </c>
       <c r="J105" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K105" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L105" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O105" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="13">
         <v>42736</v>
       </c>
@@ -16789,10 +16996,10 @@
         <v>204</v>
       </c>
       <c r="E106" s="41" t="s">
-        <v>232</v>
+        <v>344</v>
       </c>
       <c r="F106" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G106" s="28"/>
       <c r="H106" s="28" t="s">
@@ -16802,19 +17009,22 @@
         <v>199</v>
       </c>
       <c r="J106" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K106" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L106" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O106" s="24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P106" s="88" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="13">
         <v>42736</v>
       </c>
@@ -16826,10 +17036,10 @@
         <v>204</v>
       </c>
       <c r="E107" s="41" t="s">
-        <v>235</v>
+        <v>343</v>
       </c>
       <c r="F107" s="28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G107" s="28"/>
       <c r="H107" s="28" t="s">
@@ -16839,35 +17049,39 @@
         <v>199</v>
       </c>
       <c r="J107" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K107" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L107" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O107" s="24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P107" s="89" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="13">
         <v>42736</v>
       </c>
       <c r="B108" s="13"/>
-      <c r="C108" s="24" t="s">
+      <c r="C108" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="D108" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="E108" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="F108" s="14">
-        <v>1</v>
-      </c>
+      <c r="D108" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E108" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F108" s="28">
+        <v>6</v>
+      </c>
+      <c r="G108" s="28"/>
       <c r="H108" s="28" t="s">
         <v>72</v>
       </c>
@@ -16875,35 +17089,36 @@
         <v>199</v>
       </c>
       <c r="J108" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K108" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L108" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O108" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="13">
         <v>42736</v>
       </c>
       <c r="B109" s="13"/>
-      <c r="C109" s="24" t="s">
+      <c r="C109" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="D109" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="E109" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="F109" s="14">
-        <v>1</v>
-      </c>
+      <c r="D109" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E109" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F109" s="28">
+        <v>7</v>
+      </c>
+      <c r="G109" s="28"/>
       <c r="H109" s="28" t="s">
         <v>72</v>
       </c>
@@ -16911,35 +17126,36 @@
         <v>199</v>
       </c>
       <c r="J109" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K109" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L109" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O109" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="13">
         <v>42736</v>
       </c>
       <c r="B110" s="13"/>
-      <c r="C110" s="24" t="s">
+      <c r="C110" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="D110" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="E110" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="F110" s="14">
-        <v>1</v>
-      </c>
+      <c r="D110" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E110" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F110" s="28">
+        <v>8</v>
+      </c>
+      <c r="G110" s="28"/>
       <c r="H110" s="28" t="s">
         <v>72</v>
       </c>
@@ -16947,35 +17163,36 @@
         <v>199</v>
       </c>
       <c r="J110" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K110" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L110" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O110" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="13">
         <v>42736</v>
       </c>
       <c r="B111" s="13"/>
-      <c r="C111" s="24" t="s">
+      <c r="C111" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="D111" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="E111" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="F111" s="14">
-        <v>1</v>
-      </c>
+      <c r="D111" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E111" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="F111" s="28">
+        <v>1</v>
+      </c>
+      <c r="G111" s="28"/>
       <c r="H111" s="28" t="s">
         <v>72</v>
       </c>
@@ -16983,35 +17200,36 @@
         <v>199</v>
       </c>
       <c r="J111" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K111" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L111" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O111" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="13">
         <v>42736</v>
       </c>
       <c r="B112" s="13"/>
-      <c r="C112" s="24" t="s">
+      <c r="C112" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="D112" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="E112" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="F112" s="14">
-        <v>1</v>
-      </c>
+      <c r="D112" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E112" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="F112" s="28">
+        <v>2</v>
+      </c>
+      <c r="G112" s="28"/>
       <c r="H112" s="28" t="s">
         <v>72</v>
       </c>
@@ -17019,35 +17237,36 @@
         <v>199</v>
       </c>
       <c r="J112" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K112" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L112" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O112" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="13">
         <v>42736</v>
       </c>
       <c r="B113" s="13"/>
-      <c r="C113" s="24" t="s">
+      <c r="C113" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="D113" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="E113" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="F113" s="14">
-        <v>1</v>
-      </c>
+      <c r="D113" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E113" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="F113" s="28">
+        <v>3</v>
+      </c>
+      <c r="G113" s="28"/>
       <c r="H113" s="28" t="s">
         <v>72</v>
       </c>
@@ -17055,13 +17274,13 @@
         <v>199</v>
       </c>
       <c r="J113" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K113" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L113" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O113" s="24" t="s">
         <v>25</v>
@@ -17076,7 +17295,7 @@
         <v>275</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E114" s="28" t="s">
         <v>135</v>
@@ -17112,7 +17331,7 @@
         <v>275</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="E115" s="28" t="s">
         <v>135</v>
@@ -17148,7 +17367,7 @@
         <v>275</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="E116" s="28" t="s">
         <v>135</v>
@@ -17184,7 +17403,7 @@
         <v>275</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="E117" s="28" t="s">
         <v>135</v>
@@ -17220,7 +17439,7 @@
         <v>275</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="E118" s="28" t="s">
         <v>135</v>
@@ -17256,7 +17475,7 @@
         <v>275</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E119" s="28" t="s">
         <v>135</v>
@@ -17292,7 +17511,7 @@
         <v>275</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="E120" s="28" t="s">
         <v>135</v>
@@ -17328,7 +17547,7 @@
         <v>275</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="E121" s="28" t="s">
         <v>135</v>
@@ -17364,7 +17583,7 @@
         <v>275</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E122" s="28" t="s">
         <v>135</v>
@@ -17400,7 +17619,7 @@
         <v>275</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="E123" s="28" t="s">
         <v>135</v>
@@ -17427,26 +17646,25 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="13">
         <v>42736</v>
       </c>
       <c r="B124" s="13"/>
-      <c r="C124" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D124" s="41" t="s">
-        <v>188</v>
+      <c r="C124" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D124" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="E124" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F124" s="28">
-        <v>1</v>
-      </c>
-      <c r="G124" s="28"/>
-      <c r="H124" s="41" t="s">
-        <v>25</v>
+        <v>135</v>
+      </c>
+      <c r="F124" s="14">
+        <v>1</v>
+      </c>
+      <c r="H124" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I124" s="28" t="s">
         <v>199</v>
@@ -17461,29 +17679,28 @@
         <v>1</v>
       </c>
       <c r="O124" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="13">
         <v>42736</v>
       </c>
       <c r="B125" s="13"/>
-      <c r="C125" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D125" s="41" t="s">
-        <v>188</v>
+      <c r="C125" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D125" s="24" t="s">
+        <v>307</v>
       </c>
       <c r="E125" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="F125" s="28">
-        <v>2</v>
-      </c>
-      <c r="G125" s="28"/>
-      <c r="H125" s="41" t="s">
-        <v>25</v>
+      <c r="F125" s="14">
+        <v>1</v>
+      </c>
+      <c r="H125" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I125" s="28" t="s">
         <v>199</v>
@@ -17498,29 +17715,28 @@
         <v>1</v>
       </c>
       <c r="O125" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="13">
         <v>42736</v>
       </c>
       <c r="B126" s="13"/>
-      <c r="C126" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D126" s="41" t="s">
-        <v>188</v>
+      <c r="C126" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D126" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="E126" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="F126" s="28">
-        <v>3</v>
-      </c>
-      <c r="G126" s="28"/>
-      <c r="H126" s="41" t="s">
-        <v>25</v>
+        <v>135</v>
+      </c>
+      <c r="F126" s="14">
+        <v>1</v>
+      </c>
+      <c r="H126" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I126" s="28" t="s">
         <v>199</v>
@@ -17535,29 +17751,28 @@
         <v>1</v>
       </c>
       <c r="O126" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="13">
         <v>42736</v>
       </c>
       <c r="B127" s="13"/>
-      <c r="C127" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D127" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E127" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="F127" s="28">
-        <v>4</v>
-      </c>
-      <c r="G127" s="28"/>
-      <c r="H127" s="41" t="s">
-        <v>25</v>
+      <c r="C127" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D127" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="E127" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F127" s="14">
+        <v>1</v>
+      </c>
+      <c r="H127" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I127" s="28" t="s">
         <v>199</v>
@@ -17572,29 +17787,28 @@
         <v>1</v>
       </c>
       <c r="O127" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="13">
         <v>42736</v>
       </c>
       <c r="B128" s="13"/>
-      <c r="C128" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D128" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E128" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="F128" s="28">
-        <v>5</v>
-      </c>
-      <c r="G128" s="28"/>
-      <c r="H128" s="41" t="s">
-        <v>25</v>
+      <c r="C128" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D128" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="E128" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F128" s="14">
+        <v>1</v>
+      </c>
+      <c r="H128" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I128" s="28" t="s">
         <v>199</v>
@@ -17609,44 +17823,43 @@
         <v>1</v>
       </c>
       <c r="O128" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="13">
         <v>42736</v>
       </c>
       <c r="B129" s="13"/>
-      <c r="C129" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D129" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E129" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="F129" s="28">
-        <v>1</v>
-      </c>
-      <c r="G129" s="28"/>
-      <c r="H129" s="41" t="s">
-        <v>25</v>
+      <c r="C129" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="E129" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F129" s="14">
+        <v>1</v>
+      </c>
+      <c r="H129" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I129" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J129" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K129" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L129" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O129" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17660,11 +17873,11 @@
       <c r="D130" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="E130" s="41" t="s">
-        <v>156</v>
+      <c r="E130" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="F130" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G130" s="28"/>
       <c r="H130" s="41" t="s">
@@ -17674,13 +17887,13 @@
         <v>199</v>
       </c>
       <c r="J130" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K130" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L130" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O130" s="24" t="s">
         <v>72</v>
@@ -17697,11 +17910,11 @@
       <c r="D131" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="E131" s="41" t="s">
-        <v>239</v>
+      <c r="E131" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="F131" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G131" s="28"/>
       <c r="H131" s="41" t="s">
@@ -17711,13 +17924,13 @@
         <v>199</v>
       </c>
       <c r="J131" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K131" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L131" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O131" s="24" t="s">
         <v>72</v>
@@ -17734,11 +17947,11 @@
       <c r="D132" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="E132" s="41" t="s">
-        <v>154</v>
+      <c r="E132" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="F132" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G132" s="28"/>
       <c r="H132" s="41" t="s">
@@ -17748,13 +17961,13 @@
         <v>199</v>
       </c>
       <c r="J132" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K132" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L132" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O132" s="24" t="s">
         <v>72</v>
@@ -17772,10 +17985,10 @@
         <v>188</v>
       </c>
       <c r="E133" s="41" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F133" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G133" s="28"/>
       <c r="H133" s="41" t="s">
@@ -17785,13 +17998,13 @@
         <v>199</v>
       </c>
       <c r="J133" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K133" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L133" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O133" s="24" t="s">
         <v>72</v>
@@ -17809,10 +18022,10 @@
         <v>188</v>
       </c>
       <c r="E134" s="41" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="F134" s="28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G134" s="28"/>
       <c r="H134" s="41" t="s">
@@ -17822,13 +18035,13 @@
         <v>199</v>
       </c>
       <c r="J134" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K134" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L134" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O134" s="24" t="s">
         <v>72</v>
@@ -17846,10 +18059,10 @@
         <v>188</v>
       </c>
       <c r="E135" s="41" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="F135" s="28">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G135" s="28"/>
       <c r="H135" s="41" t="s">
@@ -17883,10 +18096,10 @@
         <v>188</v>
       </c>
       <c r="E136" s="41" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="F136" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G136" s="28"/>
       <c r="H136" s="41" t="s">
@@ -17896,16 +18109,16 @@
         <v>199</v>
       </c>
       <c r="J136" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K136" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L136" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O136" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="137" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17920,10 +18133,10 @@
         <v>188</v>
       </c>
       <c r="E137" s="41" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F137" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G137" s="28"/>
       <c r="H137" s="41" t="s">
@@ -17933,16 +18146,16 @@
         <v>199</v>
       </c>
       <c r="J137" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K137" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L137" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O137" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="138" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17957,10 +18170,10 @@
         <v>188</v>
       </c>
       <c r="E138" s="41" t="s">
-        <v>235</v>
+        <v>154</v>
       </c>
       <c r="F138" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G138" s="28"/>
       <c r="H138" s="41" t="s">
@@ -17970,16 +18183,16 @@
         <v>199</v>
       </c>
       <c r="J138" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K138" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L138" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O138" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="139" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17994,10 +18207,10 @@
         <v>188</v>
       </c>
       <c r="E139" s="41" t="s">
-        <v>243</v>
+        <v>158</v>
       </c>
       <c r="F139" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G139" s="28"/>
       <c r="H139" s="41" t="s">
@@ -18007,13 +18220,13 @@
         <v>199</v>
       </c>
       <c r="J139" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K139" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L139" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O139" s="24" t="s">
         <v>72</v>
@@ -18028,13 +18241,13 @@
         <v>276</v>
       </c>
       <c r="D140" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E140" s="28" t="s">
-        <v>133</v>
+        <v>188</v>
+      </c>
+      <c r="E140" s="41" t="s">
+        <v>247</v>
       </c>
       <c r="F140" s="28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G140" s="28"/>
       <c r="H140" s="41" t="s">
@@ -18044,13 +18257,13 @@
         <v>199</v>
       </c>
       <c r="J140" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K140" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L140" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O140" s="24" t="s">
         <v>72</v>
@@ -18065,13 +18278,13 @@
         <v>276</v>
       </c>
       <c r="D141" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E141" s="28" t="s">
-        <v>135</v>
+        <v>188</v>
+      </c>
+      <c r="E141" s="41" t="s">
+        <v>168</v>
       </c>
       <c r="F141" s="28">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G141" s="28"/>
       <c r="H141" s="41" t="s">
@@ -18081,13 +18294,13 @@
         <v>199</v>
       </c>
       <c r="J141" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K141" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L141" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O141" s="24" t="s">
         <v>72</v>
@@ -18102,13 +18315,13 @@
         <v>276</v>
       </c>
       <c r="D142" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E142" s="28" t="s">
-        <v>137</v>
+        <v>188</v>
+      </c>
+      <c r="E142" s="41" t="s">
+        <v>223</v>
       </c>
       <c r="F142" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G142" s="28"/>
       <c r="H142" s="41" t="s">
@@ -18118,16 +18331,16 @@
         <v>199</v>
       </c>
       <c r="J142" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K142" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L142" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O142" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="143" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18139,13 +18352,13 @@
         <v>276</v>
       </c>
       <c r="D143" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E143" s="41" t="s">
-        <v>142</v>
+        <v>232</v>
       </c>
       <c r="F143" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G143" s="28"/>
       <c r="H143" s="41" t="s">
@@ -18155,16 +18368,16 @@
         <v>199</v>
       </c>
       <c r="J143" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K143" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L143" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O143" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="144" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18176,13 +18389,13 @@
         <v>276</v>
       </c>
       <c r="D144" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E144" s="41" t="s">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="F144" s="28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G144" s="28"/>
       <c r="H144" s="41" t="s">
@@ -18192,16 +18405,16 @@
         <v>199</v>
       </c>
       <c r="J144" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K144" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L144" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O144" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18213,13 +18426,13 @@
         <v>276</v>
       </c>
       <c r="D145" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E145" s="41" t="s">
-        <v>148</v>
+        <v>243</v>
       </c>
       <c r="F145" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G145" s="28"/>
       <c r="H145" s="41" t="s">
@@ -18229,13 +18442,13 @@
         <v>199</v>
       </c>
       <c r="J145" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K145" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L145" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O145" s="24" t="s">
         <v>72</v>
@@ -18252,11 +18465,11 @@
       <c r="D146" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E146" s="41" t="s">
-        <v>156</v>
+      <c r="E146" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="F146" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G146" s="28"/>
       <c r="H146" s="41" t="s">
@@ -18266,13 +18479,13 @@
         <v>199</v>
       </c>
       <c r="J146" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K146" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L146" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O146" s="24" t="s">
         <v>72</v>
@@ -18289,11 +18502,11 @@
       <c r="D147" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E147" s="41" t="s">
-        <v>239</v>
+      <c r="E147" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="F147" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G147" s="28"/>
       <c r="H147" s="41" t="s">
@@ -18303,13 +18516,13 @@
         <v>199</v>
       </c>
       <c r="J147" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K147" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L147" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O147" s="24" t="s">
         <v>72</v>
@@ -18326,11 +18539,11 @@
       <c r="D148" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E148" s="41" t="s">
-        <v>154</v>
+      <c r="E148" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="F148" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G148" s="28"/>
       <c r="H148" s="41" t="s">
@@ -18340,13 +18553,13 @@
         <v>199</v>
       </c>
       <c r="J148" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K148" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L148" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O148" s="24" t="s">
         <v>72</v>
@@ -18364,10 +18577,10 @@
         <v>196</v>
       </c>
       <c r="E149" s="41" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F149" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G149" s="28"/>
       <c r="H149" s="41" t="s">
@@ -18377,13 +18590,13 @@
         <v>199</v>
       </c>
       <c r="J149" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K149" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L149" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O149" s="24" t="s">
         <v>72</v>
@@ -18401,10 +18614,10 @@
         <v>196</v>
       </c>
       <c r="E150" s="41" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="F150" s="28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G150" s="28"/>
       <c r="H150" s="41" t="s">
@@ -18414,13 +18627,13 @@
         <v>199</v>
       </c>
       <c r="J150" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K150" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L150" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O150" s="24" t="s">
         <v>72</v>
@@ -18438,7 +18651,7 @@
         <v>196</v>
       </c>
       <c r="E151" s="41" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="F151" s="28">
         <v>1</v>
@@ -18451,16 +18664,16 @@
         <v>199</v>
       </c>
       <c r="J151" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K151" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L151" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O151" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="152" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18475,7 +18688,7 @@
         <v>196</v>
       </c>
       <c r="E152" s="41" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
       <c r="F152" s="28">
         <v>2</v>
@@ -18488,16 +18701,16 @@
         <v>199</v>
       </c>
       <c r="J152" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K152" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L152" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O152" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="153" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18512,7 +18725,7 @@
         <v>196</v>
       </c>
       <c r="E153" s="41" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F153" s="28">
         <v>3</v>
@@ -18525,16 +18738,16 @@
         <v>199</v>
       </c>
       <c r="J153" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K153" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L153" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O153" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="154" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18549,7 +18762,7 @@
         <v>196</v>
       </c>
       <c r="E154" s="41" t="s">
-        <v>243</v>
+        <v>154</v>
       </c>
       <c r="F154" s="28">
         <v>4</v>
@@ -18562,13 +18775,13 @@
         <v>199</v>
       </c>
       <c r="J154" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K154" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L154" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O154" s="24" t="s">
         <v>72</v>
@@ -18583,32 +18796,32 @@
         <v>276</v>
       </c>
       <c r="D155" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E155" s="28" t="s">
-        <v>133</v>
+        <v>196</v>
+      </c>
+      <c r="E155" s="41" t="s">
+        <v>158</v>
       </c>
       <c r="F155" s="28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G155" s="28"/>
-      <c r="H155" s="28" t="s">
-        <v>72</v>
+      <c r="H155" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I155" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J155" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K155" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L155" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O155" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="156" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18620,32 +18833,32 @@
         <v>276</v>
       </c>
       <c r="D156" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E156" s="28" t="s">
-        <v>135</v>
+        <v>196</v>
+      </c>
+      <c r="E156" s="41" t="s">
+        <v>168</v>
       </c>
       <c r="F156" s="28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G156" s="28"/>
-      <c r="H156" s="28" t="s">
-        <v>72</v>
+      <c r="H156" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I156" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J156" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K156" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L156" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O156" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="157" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18657,29 +18870,29 @@
         <v>276</v>
       </c>
       <c r="D157" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E157" s="28" t="s">
-        <v>137</v>
+        <v>196</v>
+      </c>
+      <c r="E157" s="41" t="s">
+        <v>223</v>
       </c>
       <c r="F157" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G157" s="28"/>
-      <c r="H157" s="28" t="s">
-        <v>72</v>
+      <c r="H157" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I157" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J157" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K157" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L157" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O157" s="24" t="s">
         <v>25</v>
@@ -18694,29 +18907,29 @@
         <v>276</v>
       </c>
       <c r="D158" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E158" s="41" t="s">
-        <v>142</v>
+        <v>232</v>
       </c>
       <c r="F158" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G158" s="28"/>
-      <c r="H158" s="28" t="s">
-        <v>72</v>
+      <c r="H158" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I158" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J158" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K158" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L158" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O158" s="24" t="s">
         <v>25</v>
@@ -18731,29 +18944,29 @@
         <v>276</v>
       </c>
       <c r="D159" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E159" s="41" t="s">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="F159" s="28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G159" s="28"/>
-      <c r="H159" s="28" t="s">
-        <v>72</v>
+      <c r="H159" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I159" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J159" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K159" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L159" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O159" s="24" t="s">
         <v>25</v>
@@ -18768,32 +18981,32 @@
         <v>276</v>
       </c>
       <c r="D160" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E160" s="41" t="s">
-        <v>148</v>
+        <v>243</v>
       </c>
       <c r="F160" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G160" s="28"/>
-      <c r="H160" s="28" t="s">
-        <v>72</v>
+      <c r="H160" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I160" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J160" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K160" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L160" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O160" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="161" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18807,11 +19020,11 @@
       <c r="D161" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E161" s="41" t="s">
-        <v>156</v>
+      <c r="E161" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="F161" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G161" s="28"/>
       <c r="H161" s="28" t="s">
@@ -18821,13 +19034,13 @@
         <v>199</v>
       </c>
       <c r="J161" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K161" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L161" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O161" s="24" t="s">
         <v>25</v>
@@ -18844,11 +19057,11 @@
       <c r="D162" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E162" s="41" t="s">
-        <v>239</v>
+      <c r="E162" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="F162" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G162" s="28"/>
       <c r="H162" s="28" t="s">
@@ -18858,13 +19071,13 @@
         <v>199</v>
       </c>
       <c r="J162" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K162" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L162" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O162" s="24" t="s">
         <v>25</v>
@@ -18881,11 +19094,11 @@
       <c r="D163" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E163" s="41" t="s">
-        <v>154</v>
+      <c r="E163" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="F163" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G163" s="28"/>
       <c r="H163" s="28" t="s">
@@ -18895,13 +19108,13 @@
         <v>199</v>
       </c>
       <c r="J163" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K163" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L163" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O163" s="24" t="s">
         <v>25</v>
@@ -18919,10 +19132,10 @@
         <v>204</v>
       </c>
       <c r="E164" s="41" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F164" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G164" s="28"/>
       <c r="H164" s="28" t="s">
@@ -18932,13 +19145,13 @@
         <v>199</v>
       </c>
       <c r="J164" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K164" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L164" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O164" s="24" t="s">
         <v>25</v>
@@ -18956,10 +19169,10 @@
         <v>204</v>
       </c>
       <c r="E165" s="41" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="F165" s="28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G165" s="28"/>
       <c r="H165" s="28" t="s">
@@ -18969,13 +19182,13 @@
         <v>199</v>
       </c>
       <c r="J165" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K165" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L165" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O165" s="24" t="s">
         <v>25</v>
@@ -18993,7 +19206,7 @@
         <v>204</v>
       </c>
       <c r="E166" s="41" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="F166" s="28">
         <v>1</v>
@@ -19006,13 +19219,13 @@
         <v>199</v>
       </c>
       <c r="J166" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K166" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L166" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O166" s="24" t="s">
         <v>25</v>
@@ -19030,7 +19243,7 @@
         <v>204</v>
       </c>
       <c r="E167" s="41" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
       <c r="F167" s="28">
         <v>2</v>
@@ -19043,13 +19256,13 @@
         <v>199</v>
       </c>
       <c r="J167" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K167" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L167" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O167" s="24" t="s">
         <v>25</v>
@@ -19067,7 +19280,7 @@
         <v>204</v>
       </c>
       <c r="E168" s="41" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F168" s="28">
         <v>3</v>
@@ -19080,19 +19293,19 @@
         <v>199</v>
       </c>
       <c r="J168" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K168" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L168" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O168" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="13">
         <v>42736</v>
       </c>
@@ -19100,15 +19313,16 @@
       <c r="C169" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D169" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="E169" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="F169" s="14">
-        <v>1</v>
-      </c>
+      <c r="D169" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E169" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F169" s="28">
+        <v>4</v>
+      </c>
+      <c r="G169" s="28"/>
       <c r="H169" s="28" t="s">
         <v>72</v>
       </c>
@@ -19116,19 +19330,19 @@
         <v>199</v>
       </c>
       <c r="J169" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K169" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L169" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O169" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="13">
         <v>42736</v>
       </c>
@@ -19136,15 +19350,16 @@
       <c r="C170" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D170" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="E170" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="F170" s="14">
-        <v>1</v>
-      </c>
+      <c r="D170" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E170" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F170" s="28">
+        <v>5</v>
+      </c>
+      <c r="G170" s="28"/>
       <c r="H170" s="28" t="s">
         <v>72</v>
       </c>
@@ -19152,19 +19367,19 @@
         <v>199</v>
       </c>
       <c r="J170" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K170" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L170" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O170" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="13">
         <v>42736</v>
       </c>
@@ -19172,15 +19387,16 @@
       <c r="C171" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D171" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="E171" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="F171" s="14">
-        <v>1</v>
-      </c>
+      <c r="D171" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E171" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F171" s="28">
+        <v>6</v>
+      </c>
+      <c r="G171" s="28"/>
       <c r="H171" s="28" t="s">
         <v>72</v>
       </c>
@@ -19188,19 +19404,19 @@
         <v>199</v>
       </c>
       <c r="J171" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K171" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L171" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O171" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="13">
         <v>42736</v>
       </c>
@@ -19208,15 +19424,16 @@
       <c r="C172" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D172" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="E172" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="F172" s="14">
-        <v>1</v>
-      </c>
+      <c r="D172" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E172" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="F172" s="28">
+        <v>1</v>
+      </c>
+      <c r="G172" s="28"/>
       <c r="H172" s="28" t="s">
         <v>72</v>
       </c>
@@ -19224,19 +19441,19 @@
         <v>199</v>
       </c>
       <c r="J172" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K172" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L172" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O172" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="13">
         <v>42736</v>
       </c>
@@ -19244,15 +19461,16 @@
       <c r="C173" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D173" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="E173" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="F173" s="14">
-        <v>1</v>
-      </c>
+      <c r="D173" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E173" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="F173" s="28">
+        <v>2</v>
+      </c>
+      <c r="G173" s="28"/>
       <c r="H173" s="28" t="s">
         <v>72</v>
       </c>
@@ -19260,19 +19478,19 @@
         <v>199</v>
       </c>
       <c r="J173" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K173" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L173" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O173" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="13">
         <v>42736</v>
       </c>
@@ -19280,15 +19498,16 @@
       <c r="C174" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D174" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="E174" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="F174" s="14">
-        <v>1</v>
-      </c>
+      <c r="D174" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E174" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="F174" s="28">
+        <v>3</v>
+      </c>
+      <c r="G174" s="28"/>
       <c r="H174" s="28" t="s">
         <v>72</v>
       </c>
@@ -19296,13 +19515,13 @@
         <v>199</v>
       </c>
       <c r="J174" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K174" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L174" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O174" s="24" t="s">
         <v>25</v>
@@ -19317,7 +19536,7 @@
         <v>276</v>
       </c>
       <c r="D175" s="24" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E175" s="28" t="s">
         <v>135</v>
@@ -19353,7 +19572,7 @@
         <v>276</v>
       </c>
       <c r="D176" s="24" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="E176" s="28" t="s">
         <v>135</v>
@@ -19389,7 +19608,7 @@
         <v>276</v>
       </c>
       <c r="D177" s="24" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="E177" s="28" t="s">
         <v>135</v>
@@ -19425,7 +19644,7 @@
         <v>276</v>
       </c>
       <c r="D178" s="24" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="E178" s="28" t="s">
         <v>135</v>
@@ -19461,7 +19680,7 @@
         <v>276</v>
       </c>
       <c r="D179" s="24" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="E179" s="28" t="s">
         <v>135</v>
@@ -19497,7 +19716,7 @@
         <v>276</v>
       </c>
       <c r="D180" s="24" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E180" s="28" t="s">
         <v>135</v>
@@ -19533,7 +19752,7 @@
         <v>276</v>
       </c>
       <c r="D181" s="24" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="E181" s="28" t="s">
         <v>135</v>
@@ -19569,7 +19788,7 @@
         <v>276</v>
       </c>
       <c r="D182" s="24" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="E182" s="28" t="s">
         <v>135</v>
@@ -19605,7 +19824,7 @@
         <v>276</v>
       </c>
       <c r="D183" s="24" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E183" s="28" t="s">
         <v>135</v>
@@ -19641,7 +19860,7 @@
         <v>276</v>
       </c>
       <c r="D184" s="24" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="E184" s="28" t="s">
         <v>135</v>
@@ -19668,26 +19887,25 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="13">
         <v>42736</v>
       </c>
       <c r="B185" s="13"/>
       <c r="C185" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D185" s="41" t="s">
-        <v>188</v>
+        <v>276</v>
+      </c>
+      <c r="D185" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="E185" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F185" s="28">
-        <v>1</v>
-      </c>
-      <c r="G185" s="28"/>
-      <c r="H185" s="41" t="s">
-        <v>25</v>
+        <v>135</v>
+      </c>
+      <c r="F185" s="14">
+        <v>1</v>
+      </c>
+      <c r="H185" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I185" s="28" t="s">
         <v>199</v>
@@ -19702,32 +19920,31 @@
         <v>1</v>
       </c>
       <c r="O185" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="13">
         <v>42736</v>
       </c>
       <c r="B186" s="13"/>
       <c r="C186" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D186" s="41" t="s">
-        <v>188</v>
+        <v>276</v>
+      </c>
+      <c r="D186" s="24" t="s">
+        <v>307</v>
       </c>
       <c r="E186" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="F186" s="28">
-        <v>2</v>
-      </c>
-      <c r="G186" s="28"/>
-      <c r="H186" s="41" t="s">
-        <v>25</v>
+        <v>135</v>
+      </c>
+      <c r="F186" s="14">
+        <v>1</v>
+      </c>
+      <c r="H186" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I186" s="28" t="s">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="J186" s="24" t="s">
         <v>200</v>
@@ -19739,29 +19956,28 @@
         <v>1</v>
       </c>
       <c r="O186" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="13">
         <v>42736</v>
       </c>
       <c r="B187" s="13"/>
       <c r="C187" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D187" s="41" t="s">
-        <v>188</v>
+        <v>276</v>
+      </c>
+      <c r="D187" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="E187" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="F187" s="28">
-        <v>3</v>
-      </c>
-      <c r="G187" s="28"/>
-      <c r="H187" s="41" t="s">
-        <v>25</v>
+      <c r="F187" s="14">
+        <v>1</v>
+      </c>
+      <c r="H187" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I187" s="28" t="s">
         <v>199</v>
@@ -19776,29 +19992,28 @@
         <v>1</v>
       </c>
       <c r="O187" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="13">
         <v>42736</v>
       </c>
       <c r="B188" s="13"/>
       <c r="C188" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D188" s="41" t="s">
-        <v>188</v>
+        <v>276</v>
+      </c>
+      <c r="D188" s="24" t="s">
+        <v>311</v>
       </c>
       <c r="E188" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="F188" s="28">
-        <v>4</v>
-      </c>
-      <c r="G188" s="28"/>
-      <c r="H188" s="41" t="s">
-        <v>25</v>
+        <v>135</v>
+      </c>
+      <c r="F188" s="14">
+        <v>1</v>
+      </c>
+      <c r="H188" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I188" s="28" t="s">
         <v>199</v>
@@ -19813,29 +20028,28 @@
         <v>1</v>
       </c>
       <c r="O188" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="13">
         <v>42736</v>
       </c>
       <c r="B189" s="13"/>
       <c r="C189" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D189" s="41" t="s">
-        <v>196</v>
+        <v>276</v>
+      </c>
+      <c r="D189" s="24" t="s">
+        <v>313</v>
       </c>
       <c r="E189" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F189" s="28">
-        <v>1</v>
-      </c>
-      <c r="G189" s="28"/>
-      <c r="H189" s="41" t="s">
-        <v>25</v>
+        <v>135</v>
+      </c>
+      <c r="F189" s="14">
+        <v>1</v>
+      </c>
+      <c r="H189" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I189" s="28" t="s">
         <v>199</v>
@@ -19850,32 +20064,31 @@
         <v>1</v>
       </c>
       <c r="O189" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="13">
         <v>42736</v>
       </c>
       <c r="B190" s="13"/>
       <c r="C190" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D190" s="41" t="s">
-        <v>196</v>
+        <v>276</v>
+      </c>
+      <c r="D190" s="24" t="s">
+        <v>315</v>
       </c>
       <c r="E190" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="F190" s="28">
-        <v>2</v>
-      </c>
-      <c r="G190" s="28"/>
-      <c r="H190" s="41" t="s">
-        <v>25</v>
+        <v>135</v>
+      </c>
+      <c r="F190" s="14">
+        <v>1</v>
+      </c>
+      <c r="H190" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I190" s="28" t="s">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="J190" s="24" t="s">
         <v>200</v>
@@ -19887,7 +20100,7 @@
         <v>1</v>
       </c>
       <c r="O190" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19899,13 +20112,13 @@
         <v>330</v>
       </c>
       <c r="D191" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E191" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F191" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G191" s="28"/>
       <c r="H191" s="41" t="s">
@@ -19936,20 +20149,20 @@
         <v>330</v>
       </c>
       <c r="D192" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E192" s="28" t="s">
-        <v>137</v>
+        <v>334</v>
       </c>
       <c r="F192" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G192" s="28"/>
       <c r="H192" s="41" t="s">
         <v>25</v>
       </c>
       <c r="I192" s="28" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="J192" s="24" t="s">
         <v>200</v>
@@ -19973,13 +20186,13 @@
         <v>330</v>
       </c>
       <c r="D193" s="41" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E193" s="28" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F193" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G193" s="28"/>
       <c r="H193" s="41" t="s">
@@ -20010,20 +20223,20 @@
         <v>330</v>
       </c>
       <c r="D194" s="41" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E194" s="28" t="s">
-        <v>334</v>
+        <v>137</v>
       </c>
       <c r="F194" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G194" s="28"/>
       <c r="H194" s="41" t="s">
         <v>25</v>
       </c>
       <c r="I194" s="28" t="s">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="J194" s="24" t="s">
         <v>200</v>
@@ -20047,13 +20260,13 @@
         <v>330</v>
       </c>
       <c r="D195" s="41" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E195" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F195" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G195" s="28"/>
       <c r="H195" s="41" t="s">
@@ -20084,20 +20297,20 @@
         <v>330</v>
       </c>
       <c r="D196" s="41" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E196" s="28" t="s">
-        <v>137</v>
+        <v>334</v>
       </c>
       <c r="F196" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G196" s="28"/>
       <c r="H196" s="41" t="s">
         <v>25</v>
       </c>
       <c r="I196" s="28" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="J196" s="24" t="s">
         <v>200</v>
@@ -20121,13 +20334,13 @@
         <v>330</v>
       </c>
       <c r="D197" s="41" t="s">
-        <v>332</v>
+        <v>196</v>
       </c>
       <c r="E197" s="28" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F197" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G197" s="28"/>
       <c r="H197" s="41" t="s">
@@ -20158,20 +20371,20 @@
         <v>330</v>
       </c>
       <c r="D198" s="41" t="s">
-        <v>332</v>
+        <v>196</v>
       </c>
       <c r="E198" s="28" t="s">
-        <v>334</v>
+        <v>137</v>
       </c>
       <c r="F198" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G198" s="28"/>
       <c r="H198" s="41" t="s">
         <v>25</v>
       </c>
       <c r="I198" s="28" t="s">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="J198" s="24" t="s">
         <v>200</v>
@@ -20195,13 +20408,13 @@
         <v>330</v>
       </c>
       <c r="D199" s="41" t="s">
-        <v>332</v>
+        <v>194</v>
       </c>
       <c r="E199" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F199" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G199" s="28"/>
       <c r="H199" s="41" t="s">
@@ -20232,20 +20445,20 @@
         <v>330</v>
       </c>
       <c r="D200" s="41" t="s">
-        <v>332</v>
+        <v>194</v>
       </c>
       <c r="E200" s="28" t="s">
-        <v>137</v>
+        <v>334</v>
       </c>
       <c r="F200" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G200" s="28"/>
       <c r="H200" s="41" t="s">
         <v>25</v>
       </c>
       <c r="I200" s="28" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="J200" s="24" t="s">
         <v>200</v>
@@ -20260,12 +20473,240 @@
         <v>72</v>
       </c>
     </row>
+    <row r="201" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B201" s="13"/>
+      <c r="C201" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D201" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E201" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F201" s="28">
+        <v>3</v>
+      </c>
+      <c r="G201" s="28"/>
+      <c r="H201" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I201" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J201" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K201" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L201" s="14">
+        <v>1</v>
+      </c>
+      <c r="O201" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A202" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B202" s="13"/>
+      <c r="C202" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D202" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E202" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F202" s="28">
+        <v>4</v>
+      </c>
+      <c r="G202" s="28"/>
+      <c r="H202" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I202" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J202" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K202" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L202" s="14">
+        <v>1</v>
+      </c>
+      <c r="O202" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B203" s="13"/>
+      <c r="C203" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D203" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="E203" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F203" s="28">
+        <v>1</v>
+      </c>
+      <c r="G203" s="28"/>
+      <c r="H203" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I203" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J203" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K203" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L203" s="14">
+        <v>1</v>
+      </c>
+      <c r="O203" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B204" s="13"/>
+      <c r="C204" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D204" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="E204" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="F204" s="28">
+        <v>2</v>
+      </c>
+      <c r="G204" s="28"/>
+      <c r="H204" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I204" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="J204" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K204" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L204" s="14">
+        <v>1</v>
+      </c>
+      <c r="O204" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B205" s="13"/>
+      <c r="C205" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D205" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="E205" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F205" s="28">
+        <v>3</v>
+      </c>
+      <c r="G205" s="28"/>
+      <c r="H205" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I205" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J205" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K205" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L205" s="14">
+        <v>1</v>
+      </c>
+      <c r="O205" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B206" s="13"/>
+      <c r="C206" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D206" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="E206" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F206" s="28">
+        <v>4</v>
+      </c>
+      <c r="G206" s="28"/>
+      <c r="H206" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I206" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J206" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K206" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L206" s="14">
+        <v>1</v>
+      </c>
+      <c r="O206" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C215" s="41"/>
+    </row>
+    <row r="216" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C216" s="41"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A200" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A206" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B200" xr:uid="{00000000-0002-0000-0700-000002000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B206" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
